--- a/data/trans_camb/P6907S1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6907S1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,91</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 12,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,13; 9,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,26; 10,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,65; -2,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; -2,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,24; 2,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; 4,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; 4,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 3,66</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,95%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-80,57; 302,92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 294,67</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 130,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,95; 126,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,17; 94,71</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; -1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 5,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,45; -4,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,15; -2,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,91; 4,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; -1,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; -2,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 3,11</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,93%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-76,52; 71,97</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-86,62; -15,22</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-43,53; 87,37</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -4,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,37; 137,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,04; -6,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,02; -39,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,2; 49,55</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,83; -6,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,73; -2,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,0; 19,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,24; 29,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,28; -2,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 7,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,18; 7,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; -4,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,0; 9,2</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 6,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,31; 259,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,03; 257,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 2,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,5; 84,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,48; 81,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,57; -26,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,33; 91,3</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 1,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; -2,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 6,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; -2,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; -3,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 2,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; -1,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; -4,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 2,94</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,37%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,98; 30,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,75; -27,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,05; 88,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,37; -20,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,99; -43,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,63; 42,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,33; -17,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,02; -46,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,56; 35,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6907S1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 10,24</t>
+          <t>-7,98; 11,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 2,97</t>
+          <t>-17,05; 3,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 3,66</t>
+          <t>-8,23; 4,34</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,05%</t>
+          <t>-15,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-63,91%</t>
+          <t>-60,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-40,95%</t>
+          <t>-35,82%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 294,67</t>
+          <t>-100,0; 329,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-94,17; 94,71</t>
+          <t>-93,45; 108,55</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,87</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,66</t>
+          <t>-5,04; 5,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 4,89</t>
+          <t>-8,02; 4,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 3,11</t>
+          <t>-4,92; 3,05</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,35%</t>
+          <t>-19,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>-9,7%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 87,37</t>
+          <t>-43,29; 86,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 137,36</t>
+          <t>-63,06; 102,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 49,55</t>
+          <t>-43,57; 45,76</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 19,02</t>
+          <t>-6,96; 19,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 7,59</t>
+          <t>-16,8; 8,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 9,2</t>
+          <t>-8,79; 9,55</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,11%</t>
+          <t>-21,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,31; 259,76</t>
+          <t>-47,98; 260,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,5; 84,7</t>
+          <t>-68,79; 92,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,33; 91,3</t>
+          <t>-45,91; 96,33</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,22</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 6,42</t>
+          <t>-2,88; 6,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,82</t>
+          <t>-8,35; 2,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,94</t>
+          <t>-3,73; 2,74</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-20,36%</t>
+          <t>-24,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>-2,26%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 88,81</t>
+          <t>-26,29; 89,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,63; 42,19</t>
+          <t>-58,75; 31,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 35,36</t>
+          <t>-32,1; 34,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6907S1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 12,54</t>
+          <t>-7,58; 15,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 9,99</t>
+          <t>-7,42; 8,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 11,17</t>
+          <t>-8,44; 9,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,65; -2,22</t>
+          <t>-22,47; -2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,98; -2,22</t>
+          <t>-22,19; -2,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 3,47</t>
+          <t>-18,35; 3,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 4,59</t>
+          <t>-9,13; 5,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 4,72</t>
+          <t>-8,25; 5,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 4,34</t>
+          <t>-8,09; 4,49</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 425,12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-81,76; 318,99</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 262,47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-80,57; 302,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 329,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 130,93</t>
+          <t>-100,0; 146,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,95; 126,34</t>
+          <t>-100,0; 137,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-93,45; 108,55</t>
+          <t>-87,36; 119,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 3,59</t>
+          <t>-8,43; 4,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,64</t>
+          <t>-10,84; -2,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,82</t>
+          <t>-4,7; 5,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -4,28</t>
+          <t>-14,57; -4,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -2,11</t>
+          <t>-13,69; -2,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 4,09</t>
+          <t>-8,61; 3,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -1,0</t>
+          <t>-9,05; -0,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -2,88</t>
+          <t>-10,14; -3,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,05</t>
+          <t>-5,04; 3,06</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,52; 71,97</t>
+          <t>-77,86; 70,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,62; -15,22</t>
+          <t>-86,87; -22,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 86,41</t>
+          <t>-41,87; 87,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,34</t>
+          <t>-100,0; -11,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,06; 102,92</t>
+          <t>-66,04; 77,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-84,04; -6,4</t>
+          <t>-85,18; -3,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,02; -39,17</t>
+          <t>-87,7; -43,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 45,76</t>
+          <t>-44,97; 45,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,83; -6,28</t>
+          <t>-24,41; -6,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -2,4</t>
+          <t>-20,0; -1,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 19,13</t>
+          <t>-8,29; 19,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 29,59</t>
+          <t>-16,36; 31,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,28; -2,31</t>
+          <t>-24,3; -2,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 8,23</t>
+          <t>-15,17; 8,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 7,27</t>
+          <t>-16,11; 7,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -4,06</t>
+          <t>-18,43; -3,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 9,55</t>
+          <t>-7,82; 10,03</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6,53</t>
+          <t>-100,0; 13,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 260,12</t>
+          <t>-49,7; 244,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,03; 257,92</t>
+          <t>-100,0; 341,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2,21</t>
+          <t>-94,09; -0,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,79; 92,17</t>
+          <t>-64,65; 102,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-84,48; 81,07</t>
+          <t>-100,0; 78,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-91,57; -26,48</t>
+          <t>-90,33; -27,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,91; 96,33</t>
+          <t>-41,09; 100,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,67</t>
+          <t>-7,97; 1,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -2,01</t>
+          <t>-9,15; -2,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 6,61</t>
+          <t>-2,26; 7,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -2,73</t>
+          <t>-12,91; -2,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -3,94</t>
+          <t>-13,12; -3,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 2,22</t>
+          <t>-8,2; 2,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -1,61</t>
+          <t>-8,94; -1,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -4,08</t>
+          <t>-9,37; -3,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,74</t>
+          <t>-3,65; 3,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 30,74</t>
+          <t>-74,55; 20,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-80,75; -27,24</t>
+          <t>-80,88; -27,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 89,34</t>
+          <t>-21,82; 100,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -20,83</t>
+          <t>-92,52; -9,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -43,82</t>
+          <t>-93,29; -43,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,75; 31,63</t>
+          <t>-55,78; 32,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-76,33; -17,21</t>
+          <t>-78,78; -15,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-82,02; -46,68</t>
+          <t>-81,99; -47,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 34,19</t>
+          <t>-32,1; 37,12</t>
         </is>
       </c>
     </row>
